--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tslp-Crlf2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tslp</t>
   </si>
   <si>
     <t>Crlf2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.50242321654082</v>
+        <v>2.649954</v>
       </c>
       <c r="H2">
-        <v>2.50242321654082</v>
+        <v>7.949862</v>
       </c>
       <c r="I2">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198654</v>
       </c>
       <c r="J2">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198653</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.20004446236997</v>
+        <v>6.370433000000001</v>
       </c>
       <c r="N2">
-        <v>6.20004446236997</v>
+        <v>19.111299</v>
       </c>
       <c r="O2">
-        <v>0.1642237909526664</v>
+        <v>0.1644792697568606</v>
       </c>
       <c r="P2">
-        <v>0.1642237909526664</v>
+        <v>0.1644792697568606</v>
       </c>
       <c r="Q2">
-        <v>15.51513520621996</v>
+        <v>16.881354410082</v>
       </c>
       <c r="R2">
-        <v>15.51513520621996</v>
+        <v>151.932189690738</v>
       </c>
       <c r="S2">
-        <v>0.1415945425592497</v>
+        <v>0.1325883226481714</v>
       </c>
       <c r="T2">
-        <v>0.1415945425592497</v>
+        <v>0.1325883226481713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.50242321654082</v>
+        <v>2.649954</v>
       </c>
       <c r="H3">
-        <v>2.50242321654082</v>
+        <v>7.949862</v>
       </c>
       <c r="I3">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198654</v>
       </c>
       <c r="J3">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198653</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.6500138273774</v>
+        <v>2.749461</v>
       </c>
       <c r="N3">
-        <v>2.6500138273774</v>
+        <v>8.248383</v>
       </c>
       <c r="O3">
-        <v>0.07019228966021769</v>
+        <v>0.07098879110807188</v>
       </c>
       <c r="P3">
-        <v>0.07019228966021769</v>
+        <v>0.07098879110807187</v>
       </c>
       <c r="Q3">
-        <v>6.631456125783401</v>
+        <v>7.285945174794</v>
       </c>
       <c r="R3">
-        <v>6.631456125783401</v>
+        <v>65.57350657314601</v>
       </c>
       <c r="S3">
-        <v>0.06052012980561089</v>
+        <v>0.05722474785882905</v>
       </c>
       <c r="T3">
-        <v>0.06052012980561089</v>
+        <v>0.05722474785882903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.50242321654082</v>
+        <v>2.649954</v>
       </c>
       <c r="H4">
-        <v>2.50242321654082</v>
+        <v>7.949862</v>
       </c>
       <c r="I4">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198654</v>
       </c>
       <c r="J4">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198653</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.3468539412363</v>
+        <v>14.95628566666667</v>
       </c>
       <c r="N4">
-        <v>14.3468539412363</v>
+        <v>44.86885700000001</v>
       </c>
       <c r="O4">
-        <v>0.3800125558411577</v>
+        <v>0.386158828564453</v>
       </c>
       <c r="P4">
-        <v>0.3800125558411577</v>
+        <v>0.386158828564453</v>
       </c>
       <c r="Q4">
-        <v>35.90190038686988</v>
+        <v>39.633469027526</v>
       </c>
       <c r="R4">
-        <v>35.90190038686988</v>
+        <v>356.701221247734</v>
       </c>
       <c r="S4">
-        <v>0.3276486536996875</v>
+        <v>0.3112863489169764</v>
       </c>
       <c r="T4">
-        <v>0.3276486536996875</v>
+        <v>0.3112863489169763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.50242321654082</v>
+        <v>2.649954</v>
       </c>
       <c r="H5">
-        <v>2.50242321654082</v>
+        <v>7.949862</v>
       </c>
       <c r="I5">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198654</v>
       </c>
       <c r="J5">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198653</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.0073248285535</v>
+        <v>14.06944633333333</v>
       </c>
       <c r="N5">
-        <v>14.0073248285535</v>
+        <v>42.208339</v>
       </c>
       <c r="O5">
-        <v>0.3710192722668249</v>
+        <v>0.3632613762345521</v>
       </c>
       <c r="P5">
-        <v>0.3710192722668249</v>
+        <v>0.363261376234552</v>
       </c>
       <c r="Q5">
-        <v>35.05225485260094</v>
+        <v>37.283385588802</v>
       </c>
       <c r="R5">
-        <v>35.05225485260094</v>
+        <v>335.550470299218</v>
       </c>
       <c r="S5">
-        <v>0.3198946013396352</v>
+        <v>0.2928284921802225</v>
       </c>
       <c r="T5">
-        <v>0.3198946013396352</v>
+        <v>0.2928284921802224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.50242321654082</v>
+        <v>2.649954</v>
       </c>
       <c r="H6">
-        <v>2.50242321654082</v>
+        <v>7.949862</v>
       </c>
       <c r="I6">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198654</v>
       </c>
       <c r="J6">
-        <v>0.8622048105080036</v>
+        <v>0.8061096261198653</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.549394289510083</v>
+        <v>0.5852913333333333</v>
       </c>
       <c r="N6">
-        <v>0.549394289510083</v>
+        <v>1.755874</v>
       </c>
       <c r="O6">
-        <v>0.01455209127913327</v>
+        <v>0.01511173433606255</v>
       </c>
       <c r="P6">
-        <v>0.01455209127913327</v>
+        <v>0.01511173433606254</v>
       </c>
       <c r="Q6">
-        <v>1.37481702510498</v>
+        <v>1.550995109932</v>
       </c>
       <c r="R6">
-        <v>1.37481702510498</v>
+        <v>13.958955989388</v>
       </c>
       <c r="S6">
-        <v>0.01254688310382027</v>
+        <v>0.01218171451566611</v>
       </c>
       <c r="T6">
-        <v>0.01254688310382027</v>
+        <v>0.01218171451566611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.399930361220378</v>
+        <v>0.409054</v>
       </c>
       <c r="H7">
-        <v>0.399930361220378</v>
+        <v>1.227162</v>
       </c>
       <c r="I7">
-        <v>0.1377951894919964</v>
+        <v>0.1244332418611174</v>
       </c>
       <c r="J7">
-        <v>0.1377951894919964</v>
+        <v>0.1244332418611173</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.20004446236997</v>
+        <v>6.370433000000001</v>
       </c>
       <c r="N7">
-        <v>6.20004446236997</v>
+        <v>19.111299</v>
       </c>
       <c r="O7">
-        <v>0.1642237909526664</v>
+        <v>0.1644792697568606</v>
       </c>
       <c r="P7">
-        <v>0.1642237909526664</v>
+        <v>0.1644792697568606</v>
       </c>
       <c r="Q7">
-        <v>2.479586021418026</v>
+        <v>2.605851100382</v>
       </c>
       <c r="R7">
-        <v>2.479586021418026</v>
+        <v>23.452659903438</v>
       </c>
       <c r="S7">
-        <v>0.02262924839341668</v>
+        <v>0.0204666887547954</v>
       </c>
       <c r="T7">
-        <v>0.02262924839341668</v>
+        <v>0.02046668875479539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.399930361220378</v>
+        <v>0.409054</v>
       </c>
       <c r="H8">
-        <v>0.399930361220378</v>
+        <v>1.227162</v>
       </c>
       <c r="I8">
-        <v>0.1377951894919964</v>
+        <v>0.1244332418611174</v>
       </c>
       <c r="J8">
-        <v>0.1377951894919964</v>
+        <v>0.1244332418611173</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6500138273774</v>
+        <v>2.749461</v>
       </c>
       <c r="N8">
-        <v>2.6500138273774</v>
+        <v>8.248383</v>
       </c>
       <c r="O8">
-        <v>0.07019228966021769</v>
+        <v>0.07098879110807188</v>
       </c>
       <c r="P8">
-        <v>0.07019228966021769</v>
+        <v>0.07098879110807187</v>
       </c>
       <c r="Q8">
-        <v>1.05982098722204</v>
+        <v>1.124678019894</v>
       </c>
       <c r="R8">
-        <v>1.05982098722204</v>
+        <v>10.122102179046</v>
       </c>
       <c r="S8">
-        <v>0.009672159854606798</v>
+        <v>0.008833365413379047</v>
       </c>
       <c r="T8">
-        <v>0.009672159854606798</v>
+        <v>0.008833365413379042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.399930361220378</v>
+        <v>0.409054</v>
       </c>
       <c r="H9">
-        <v>0.399930361220378</v>
+        <v>1.227162</v>
       </c>
       <c r="I9">
-        <v>0.1377951894919964</v>
+        <v>0.1244332418611174</v>
       </c>
       <c r="J9">
-        <v>0.1377951894919964</v>
+        <v>0.1244332418611173</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.3468539412363</v>
+        <v>14.95628566666667</v>
       </c>
       <c r="N9">
-        <v>14.3468539412363</v>
+        <v>44.86885700000001</v>
       </c>
       <c r="O9">
-        <v>0.3800125558411577</v>
+        <v>0.386158828564453</v>
       </c>
       <c r="P9">
-        <v>0.3800125558411577</v>
+        <v>0.386158828564453</v>
       </c>
       <c r="Q9">
-        <v>5.737742479094638</v>
+        <v>6.117928477092667</v>
       </c>
       <c r="R9">
-        <v>5.737742479094638</v>
+        <v>55.061356293834</v>
       </c>
       <c r="S9">
-        <v>0.05236390214147019</v>
+        <v>0.04805099491156634</v>
       </c>
       <c r="T9">
-        <v>0.05236390214147019</v>
+        <v>0.04805099491156633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.399930361220378</v>
+        <v>0.409054</v>
       </c>
       <c r="H10">
-        <v>0.399930361220378</v>
+        <v>1.227162</v>
       </c>
       <c r="I10">
-        <v>0.1377951894919964</v>
+        <v>0.1244332418611174</v>
       </c>
       <c r="J10">
-        <v>0.1377951894919964</v>
+        <v>0.1244332418611173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.0073248285535</v>
+        <v>14.06944633333333</v>
       </c>
       <c r="N10">
-        <v>14.0073248285535</v>
+        <v>42.208339</v>
       </c>
       <c r="O10">
-        <v>0.3710192722668249</v>
+        <v>0.3632613762345521</v>
       </c>
       <c r="P10">
-        <v>0.3710192722668249</v>
+        <v>0.363261376234552</v>
       </c>
       <c r="Q10">
-        <v>5.601954478414571</v>
+        <v>5.755163300435333</v>
       </c>
       <c r="R10">
-        <v>5.601954478414571</v>
+        <v>51.796469703918</v>
       </c>
       <c r="S10">
-        <v>0.05112467092718975</v>
+        <v>0.04520179068779637</v>
       </c>
       <c r="T10">
-        <v>0.05112467092718975</v>
+        <v>0.04520179068779635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.409054</v>
+      </c>
+      <c r="H11">
+        <v>1.227162</v>
+      </c>
+      <c r="I11">
+        <v>0.1244332418611174</v>
+      </c>
+      <c r="J11">
+        <v>0.1244332418611173</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5852913333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.755874</v>
+      </c>
+      <c r="O11">
+        <v>0.01511173433606255</v>
+      </c>
+      <c r="P11">
+        <v>0.01511173433606254</v>
+      </c>
+      <c r="Q11">
+        <v>0.2394157610653333</v>
+      </c>
+      <c r="R11">
+        <v>2.154741849588</v>
+      </c>
+      <c r="S11">
+        <v>0.001880402093580223</v>
+      </c>
+      <c r="T11">
+        <v>0.001880402093580222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.152407</v>
+      </c>
+      <c r="H12">
+        <v>0.457221</v>
+      </c>
+      <c r="I12">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="J12">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.370433000000001</v>
+      </c>
+      <c r="N12">
+        <v>19.111299</v>
+      </c>
+      <c r="O12">
+        <v>0.1644792697568606</v>
+      </c>
+      <c r="P12">
+        <v>0.1644792697568606</v>
+      </c>
+      <c r="Q12">
+        <v>0.9708985822310001</v>
+      </c>
+      <c r="R12">
+        <v>8.738087240079</v>
+      </c>
+      <c r="S12">
+        <v>0.007625561987053306</v>
+      </c>
+      <c r="T12">
+        <v>0.007625561987053303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.152407</v>
+      </c>
+      <c r="H13">
+        <v>0.457221</v>
+      </c>
+      <c r="I13">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="J13">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.749461</v>
+      </c>
+      <c r="N13">
+        <v>8.248383</v>
+      </c>
+      <c r="O13">
+        <v>0.07098879110807188</v>
+      </c>
+      <c r="P13">
+        <v>0.07098879110807187</v>
+      </c>
+      <c r="Q13">
+        <v>0.419037102627</v>
+      </c>
+      <c r="R13">
+        <v>3.771333923643</v>
+      </c>
+      <c r="S13">
+        <v>0.003291171147469186</v>
+      </c>
+      <c r="T13">
+        <v>0.003291171147469185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.152407</v>
+      </c>
+      <c r="H14">
+        <v>0.457221</v>
+      </c>
+      <c r="I14">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="J14">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.95628566666667</v>
+      </c>
+      <c r="N14">
+        <v>44.86885700000001</v>
+      </c>
+      <c r="O14">
+        <v>0.386158828564453</v>
+      </c>
+      <c r="P14">
+        <v>0.386158828564453</v>
+      </c>
+      <c r="Q14">
+        <v>2.279442629599667</v>
+      </c>
+      <c r="R14">
+        <v>20.514983666397</v>
+      </c>
+      <c r="S14">
+        <v>0.01790303476188252</v>
+      </c>
+      <c r="T14">
+        <v>0.01790303476188252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.399930361220378</v>
-      </c>
-      <c r="H11">
-        <v>0.399930361220378</v>
-      </c>
-      <c r="I11">
-        <v>0.1377951894919964</v>
-      </c>
-      <c r="J11">
-        <v>0.1377951894919964</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.549394289510083</v>
-      </c>
-      <c r="N11">
-        <v>0.549394289510083</v>
-      </c>
-      <c r="O11">
-        <v>0.01455209127913327</v>
-      </c>
-      <c r="P11">
-        <v>0.01455209127913327</v>
-      </c>
-      <c r="Q11">
-        <v>0.2197194566561804</v>
-      </c>
-      <c r="R11">
-        <v>0.2197194566561804</v>
-      </c>
-      <c r="S11">
-        <v>0.002005208175312998</v>
-      </c>
-      <c r="T11">
-        <v>0.002005208175312998</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.152407</v>
+      </c>
+      <c r="H15">
+        <v>0.457221</v>
+      </c>
+      <c r="I15">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="J15">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.06944633333333</v>
+      </c>
+      <c r="N15">
+        <v>42.208339</v>
+      </c>
+      <c r="O15">
+        <v>0.3632613762345521</v>
+      </c>
+      <c r="P15">
+        <v>0.363261376234552</v>
+      </c>
+      <c r="Q15">
+        <v>2.144282107324333</v>
+      </c>
+      <c r="R15">
+        <v>19.298538965919</v>
+      </c>
+      <c r="S15">
+        <v>0.01684146668497309</v>
+      </c>
+      <c r="T15">
+        <v>0.01684146668497308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.152407</v>
+      </c>
+      <c r="H16">
+        <v>0.457221</v>
+      </c>
+      <c r="I16">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="J16">
+        <v>0.04636184242747245</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5852913333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.755874</v>
+      </c>
+      <c r="O16">
+        <v>0.01511173433606255</v>
+      </c>
+      <c r="P16">
+        <v>0.01511173433606254</v>
+      </c>
+      <c r="Q16">
+        <v>0.08920249623933332</v>
+      </c>
+      <c r="R16">
+        <v>0.802822466154</v>
+      </c>
+      <c r="S16">
+        <v>0.0007006078460943567</v>
+      </c>
+      <c r="T16">
+        <v>0.0007006078460943566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02438866666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.07316599999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.007418973675855766</v>
+      </c>
+      <c r="J17">
+        <v>0.007418973675855765</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.370433000000001</v>
+      </c>
+      <c r="N17">
+        <v>19.111299</v>
+      </c>
+      <c r="O17">
+        <v>0.1644792697568606</v>
+      </c>
+      <c r="P17">
+        <v>0.1644792697568606</v>
+      </c>
+      <c r="Q17">
+        <v>0.1553663669593334</v>
+      </c>
+      <c r="R17">
+        <v>1.398297302634</v>
+      </c>
+      <c r="S17">
+        <v>0.001220267372550128</v>
+      </c>
+      <c r="T17">
+        <v>0.001220267372550128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02438866666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.07316599999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.007418973675855766</v>
+      </c>
+      <c r="J18">
+        <v>0.007418973675855765</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.749461</v>
+      </c>
+      <c r="N18">
+        <v>8.248383</v>
+      </c>
+      <c r="O18">
+        <v>0.07098879110807188</v>
+      </c>
+      <c r="P18">
+        <v>0.07098879110807187</v>
+      </c>
+      <c r="Q18">
+        <v>0.067055687842</v>
+      </c>
+      <c r="R18">
+        <v>0.603501190578</v>
+      </c>
+      <c r="S18">
+        <v>0.0005266639725116091</v>
+      </c>
+      <c r="T18">
+        <v>0.000526663972511609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02438866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.07316599999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.007418973675855766</v>
+      </c>
+      <c r="J19">
+        <v>0.007418973675855765</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.95628566666667</v>
+      </c>
+      <c r="N19">
+        <v>44.86885700000001</v>
+      </c>
+      <c r="O19">
+        <v>0.386158828564453</v>
+      </c>
+      <c r="P19">
+        <v>0.386158828564453</v>
+      </c>
+      <c r="Q19">
+        <v>0.3647638656957778</v>
+      </c>
+      <c r="R19">
+        <v>3.282874791262</v>
+      </c>
+      <c r="S19">
+        <v>0.002864902183818977</v>
+      </c>
+      <c r="T19">
+        <v>0.002864902183818976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02438866666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.07316599999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.007418973675855766</v>
+      </c>
+      <c r="J20">
+        <v>0.007418973675855765</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.06944633333333</v>
+      </c>
+      <c r="N20">
+        <v>42.208339</v>
+      </c>
+      <c r="O20">
+        <v>0.3632613762345521</v>
+      </c>
+      <c r="P20">
+        <v>0.363261376234552</v>
+      </c>
+      <c r="Q20">
+        <v>0.3431350368082222</v>
+      </c>
+      <c r="R20">
+        <v>3.088215331274</v>
+      </c>
+      <c r="S20">
+        <v>0.002695026587739279</v>
+      </c>
+      <c r="T20">
+        <v>0.002695026587739278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02438866666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.07316599999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.007418973675855766</v>
+      </c>
+      <c r="J21">
+        <v>0.007418973675855765</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5852913333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.755874</v>
+      </c>
+      <c r="O21">
+        <v>0.01511173433606255</v>
+      </c>
+      <c r="P21">
+        <v>0.01511173433606254</v>
+      </c>
+      <c r="Q21">
+        <v>0.01427447523155555</v>
+      </c>
+      <c r="R21">
+        <v>0.128470277084</v>
+      </c>
+      <c r="S21">
+        <v>0.0001121135592357737</v>
+      </c>
+      <c r="T21">
+        <v>0.0001121135592357737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.05153333333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.1546</v>
+      </c>
+      <c r="I22">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="J22">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.370433000000001</v>
+      </c>
+      <c r="N22">
+        <v>19.111299</v>
+      </c>
+      <c r="O22">
+        <v>0.1644792697568606</v>
+      </c>
+      <c r="P22">
+        <v>0.1644792697568606</v>
+      </c>
+      <c r="Q22">
+        <v>0.3282896472666667</v>
+      </c>
+      <c r="R22">
+        <v>2.9546068254</v>
+      </c>
+      <c r="S22">
+        <v>0.002578428994290379</v>
+      </c>
+      <c r="T22">
+        <v>0.002578428994290378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.05153333333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.1546</v>
+      </c>
+      <c r="I23">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="J23">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.749461</v>
+      </c>
+      <c r="N23">
+        <v>8.248383</v>
+      </c>
+      <c r="O23">
+        <v>0.07098879110807188</v>
+      </c>
+      <c r="P23">
+        <v>0.07098879110807187</v>
+      </c>
+      <c r="Q23">
+        <v>0.1416888902</v>
+      </c>
+      <c r="R23">
+        <v>1.2752000118</v>
+      </c>
+      <c r="S23">
+        <v>0.001112842715882989</v>
+      </c>
+      <c r="T23">
+        <v>0.001112842715882989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.05153333333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.1546</v>
+      </c>
+      <c r="I24">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="J24">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.95628566666667</v>
+      </c>
+      <c r="N24">
+        <v>44.86885700000001</v>
+      </c>
+      <c r="O24">
+        <v>0.386158828564453</v>
+      </c>
+      <c r="P24">
+        <v>0.386158828564453</v>
+      </c>
+      <c r="Q24">
+        <v>0.7707472546888888</v>
+      </c>
+      <c r="R24">
+        <v>6.9367252922</v>
+      </c>
+      <c r="S24">
+        <v>0.006053547790208755</v>
+      </c>
+      <c r="T24">
+        <v>0.006053547790208755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.05153333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.1546</v>
+      </c>
+      <c r="I25">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="J25">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.06944633333333</v>
+      </c>
+      <c r="N25">
+        <v>42.208339</v>
+      </c>
+      <c r="O25">
+        <v>0.3632613762345521</v>
+      </c>
+      <c r="P25">
+        <v>0.363261376234552</v>
+      </c>
+      <c r="Q25">
+        <v>0.725045467711111</v>
+      </c>
+      <c r="R25">
+        <v>6.5254092094</v>
+      </c>
+      <c r="S25">
+        <v>0.005694600093820799</v>
+      </c>
+      <c r="T25">
+        <v>0.005694600093820798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.05153333333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.1546</v>
+      </c>
+      <c r="I26">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="J26">
+        <v>0.015676315915689</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5852913333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.755874</v>
+      </c>
+      <c r="O26">
+        <v>0.01511173433606255</v>
+      </c>
+      <c r="P26">
+        <v>0.01511173433606254</v>
+      </c>
+      <c r="Q26">
+        <v>0.03016201337777777</v>
+      </c>
+      <c r="R26">
+        <v>0.2714581203999999</v>
+      </c>
+      <c r="S26">
+        <v>0.0002368963214860812</v>
+      </c>
+      <c r="T26">
+        <v>0.0002368963214860812</v>
       </c>
     </row>
   </sheetData>
